--- a/va_facility_data_2025-02-20/Lexington Park VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lexington%20Park%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Lexington Park VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lexington%20Park%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R68adb8cfca8045f8930ed81c4b7d0806"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rdec39352da564c01919527b26014de6f"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R74310a9fe05a444fb95f3ecfdc77d3cf"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R044664456f644c97b3225635fff0f4cc"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rcec6b2e103bf4ddabf5923d67b2bfa13"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8bbf02afc1544d76a2cb0ba6c4fa7e8a"/>
   </x:sheets>
 </x:workbook>
 </file>
